--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault.sharepoint.com/sites/CSE6242Spring2024ProjectTeam147/Shared Documents/General/Visual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ongy1\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{176DD1A5-2544-46B0-865B-8C28655C1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE6EAB4-07AD-4D3E-A21B-F0127DAB0BFD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB157FE6-0FC8-4BA1-AC99-739CFD9857BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="1596" windowWidth="14760" windowHeight="14316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,10 +257,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,7 +807,7 @@
         <v>2943.4393920000002</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>464.57922710399998</v>
       </c>
       <c r="G7" s="2">
         <v>16</v>
@@ -934,7 +930,7 @@
         <v>2444.0862280000001</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>421.135501836</v>
       </c>
       <c r="G10" s="2">
         <v>55</v>
@@ -1549,7 +1545,7 @@
         <v>1337.0823869999999</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>324.82616766899997</v>
       </c>
       <c r="G25" s="2">
         <v>86</v>
@@ -1631,7 +1627,7 @@
         <v>1720.13672</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>358.15189464000002</v>
       </c>
       <c r="G27" s="2">
         <v>55</v>

--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ongy1\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB157FE6-0FC8-4BA1-AC99-739CFD9857BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B302D-57A0-4A60-B76E-321159516EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="1596" windowWidth="14760" windowHeight="14316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>district</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>count_of_pharmacies</t>
-  </si>
-  <si>
-    <t>population_density_per_sq_km</t>
   </si>
 </sst>
 </file>
@@ -522,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,10 +538,9 @@
     <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,11 +577,8 @@
       <c r="L1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -622,11 +615,8 @@
       <c r="L2" s="6">
         <v>11</v>
       </c>
-      <c r="M2" s="2">
-        <v>153.84615384615381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -663,11 +653,8 @@
       <c r="L3" s="6">
         <v>4</v>
       </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -704,11 +691,8 @@
       <c r="L4" s="6">
         <v>18</v>
       </c>
-      <c r="M4" s="2">
-        <v>12744.525547445261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -745,11 +729,8 @@
       <c r="L5" s="6">
         <v>6</v>
       </c>
-      <c r="M5" s="2">
-        <v>7416.9524742773146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -786,11 +767,8 @@
       <c r="L6" s="6">
         <v>13</v>
       </c>
-      <c r="M6" s="2">
-        <v>6357.954545454545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -827,11 +805,8 @@
       <c r="L7" s="6">
         <v>2</v>
       </c>
-      <c r="M7" s="2">
-        <v>759.03614457831327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -868,11 +843,8 @@
       <c r="L8" s="6">
         <v>4</v>
       </c>
-      <c r="M8" s="2">
-        <v>7981.4814814814808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -909,11 +881,8 @@
       <c r="L9" s="6">
         <v>6</v>
       </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -950,11 +919,8 @@
       <c r="L10" s="6">
         <v>24</v>
       </c>
-      <c r="M10" s="2">
-        <v>4738.3592017738374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -991,11 +957,8 @@
       <c r="L11" s="6">
         <v>8</v>
       </c>
-      <c r="M11" s="2">
-        <v>4063.593004769476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1032,11 +995,8 @@
       <c r="L12" s="6">
         <v>13</v>
       </c>
-      <c r="M12" s="2">
-        <v>5632.5167037861911</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1073,11 +1033,8 @@
       <c r="L13" s="6">
         <v>10</v>
       </c>
-      <c r="M13" s="2">
-        <v>10961.832061068701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1114,11 +1071,8 @@
       <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
-        <v>15722.154222766219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1155,11 +1109,8 @@
       <c r="L15" s="6">
         <v>4</v>
       </c>
-      <c r="M15" s="2">
-        <v>11322.614107883821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1196,11 +1147,8 @@
       <c r="L16" s="6">
         <v>7</v>
       </c>
-      <c r="M16" s="2">
-        <v>5774.5591939546593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1237,11 +1185,8 @@
       <c r="L17" s="6">
         <v>7</v>
       </c>
-      <c r="M17" s="2">
-        <v>12829.41447671738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1278,11 +1223,8 @@
       <c r="L18" s="6">
         <v>15</v>
       </c>
-      <c r="M18" s="2">
-        <v>42.779484755376977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1319,11 +1261,8 @@
       <c r="L19" s="6">
         <v>19</v>
       </c>
-      <c r="M19" s="2">
-        <v>11454.46950710109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1360,11 +1299,8 @@
       <c r="L20" s="6">
         <v>28</v>
       </c>
-      <c r="M20" s="2">
-        <v>14078.526504941599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1401,11 +1337,8 @@
       <c r="L21" s="6">
         <v>14</v>
       </c>
-      <c r="M21" s="2">
-        <v>4201.6692215976836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1442,11 +1375,8 @@
       <c r="L22" s="6">
         <v>4</v>
       </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1483,11 +1413,8 @@
       <c r="L23" s="6">
         <v>19</v>
       </c>
-      <c r="M23" s="2">
-        <v>2579.9167694204689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1524,11 +1451,8 @@
       <c r="L24" s="6">
         <v>16</v>
       </c>
-      <c r="M24" s="2">
-        <v>18740.754860846358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1565,11 +1489,8 @@
       <c r="L25" s="6">
         <v>0</v>
       </c>
-      <c r="M25" s="2">
-        <v>8.068234209313049</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1606,11 +1527,8 @@
       <c r="L26" s="6">
         <v>6</v>
       </c>
-      <c r="M26" s="2">
-        <v>6167.3518742442566</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1647,11 +1565,8 @@
       <c r="L27" s="6">
         <v>0</v>
       </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1688,11 +1603,8 @@
       <c r="L28" s="6">
         <v>9</v>
       </c>
-      <c r="M28" s="2">
-        <v>8545.5954533712229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1729,11 +1641,8 @@
       <c r="L29" s="6">
         <v>2</v>
       </c>
-      <c r="M29" s="2">
-        <v>29.26829268292683</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="I30" s="7"/>
@@ -3040,6 +2949,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D754792E9997474D976F6D1FE79FA4E2" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60c1f90625c9169e5c64095fba79b599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ecfeca8f-d1bc-4af3-88a0-5b0f1b278664" xmlns:ns3="2baa01e9-6766-4d8a-a8b2-c63d233347b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50a8d4f7bb4832db12acea49bbd3fde8" ns2:_="" ns3:_="">
     <xsd:import namespace="ecfeca8f-d1bc-4af3-88a0-5b0f1b278664"/>
@@ -3216,16 +3134,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF800566-510B-42BE-BF73-06CC2662D57C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90898173-1C08-4657-A6BD-001FD2D95A6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3242,12 +3159,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF800566-510B-42BE-BF73-06CC2662D57C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ongy1\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B302D-57A0-4A60-B76E-321159516EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF32ED5-5799-4A9C-B2B3-76048BE5B666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1188" yWindow="3012" windowWidth="13356" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +785,7 @@
         <v>2943.4393920000002</v>
       </c>
       <c r="F7" s="4">
-        <v>464.57922710399998</v>
+        <v>822.79580111040002</v>
       </c>
       <c r="G7" s="2">
         <v>16</v>
@@ -899,7 +899,7 @@
         <v>2444.0862280000001</v>
       </c>
       <c r="F10" s="4">
-        <v>421.135501836</v>
+        <v>718.58079578360002</v>
       </c>
       <c r="G10" s="2">
         <v>55</v>
@@ -1469,7 +1469,7 @@
         <v>1337.0823869999999</v>
       </c>
       <c r="F25" s="4">
-        <v>324.82616766899997</v>
+        <v>487.54909416689998</v>
       </c>
       <c r="G25" s="2">
         <v>86</v>
@@ -1545,7 +1545,7 @@
         <v>1720.13672</v>
       </c>
       <c r="F27" s="4">
-        <v>358.15189464000002</v>
+        <v>567.49253346399996</v>
       </c>
       <c r="G27" s="2">
         <v>55</v>
@@ -2949,15 +2949,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D754792E9997474D976F6D1FE79FA4E2" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60c1f90625c9169e5c64095fba79b599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ecfeca8f-d1bc-4af3-88a0-5b0f1b278664" xmlns:ns3="2baa01e9-6766-4d8a-a8b2-c63d233347b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50a8d4f7bb4832db12acea49bbd3fde8" ns2:_="" ns3:_="">
     <xsd:import namespace="ecfeca8f-d1bc-4af3-88a0-5b0f1b278664"/>
@@ -3134,15 +3125,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF800566-510B-42BE-BF73-06CC2662D57C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90898173-1C08-4657-A6BD-001FD2D95A6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3159,4 +3151,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF800566-510B-42BE-BF73-06CC2662D57C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>